--- a/Scraper/Stat_crowl.xlsx
+++ b/Scraper/Stat_crowl.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>Dete</t>
   </si>
@@ -154,6 +154,29 @@
     <t>Views w-robots</t>
   </si>
   <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Default'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
     <t>['Default', 'Profile 1']</t>
   </si>
   <si>
@@ -164,6 +187,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>['Default', 'Profile 3']</t>
   </si>
   <si>
     <t>['Profile 3']</t>
@@ -220,7 +246,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +317,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -295,9 +333,11 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,7 +626,7 @@
     <col min="18" max="18" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -631,13 +671,13 @@
         <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -688,16 +728,16 @@
         <v>9</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>44764</v>
       </c>
@@ -756,10 +796,10 @@
         <v>14</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3">
         <f>M3-L3</f>
@@ -777,8 +817,12 @@
         <f>X3/V3*100</f>
         <v>10</v>
       </c>
+      <c r="Z3" s="7">
+        <f>W3/V3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>44764</v>
       </c>
@@ -831,35 +875,39 @@
         <v>9.07</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s">
         <v>14</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V10" si="0">M4-L4</f>
+        <f t="shared" ref="V4:V11" si="0">M4-L4</f>
         <v>27</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W10" si="1">O4-N4</f>
+        <f t="shared" ref="W4:W11" si="1">O4-N4</f>
         <v>1</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X10" si="2">Q4-P4</f>
+        <f t="shared" ref="X4:X11" si="2">Q4-P4</f>
         <v>2.8200000000000003</v>
       </c>
       <c r="Y4" s="6">
-        <f t="shared" ref="Y4:Y10" si="3">X4/V4*100</f>
+        <f t="shared" ref="Y4:Y11" si="3">X4/V4*100</f>
         <v>10.444444444444445</v>
       </c>
+      <c r="Z4" s="7">
+        <f t="shared" ref="Z4:Z11" si="4">W4/V4</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>44765</v>
       </c>
@@ -867,7 +915,7 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -912,16 +960,16 @@
         <v>4.78</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
         <v>14</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
@@ -939,8 +987,12 @@
         <f t="shared" si="3"/>
         <v>7.08955223880597</v>
       </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>44766</v>
       </c>
@@ -990,16 +1042,16 @@
         <v>12.43</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" t="s">
         <v>22</v>
       </c>
-      <c r="S6" t="s">
-        <v>21</v>
-      </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
@@ -1017,8 +1069,12 @@
         <f t="shared" si="3"/>
         <v>10.152542372881356</v>
       </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="4"/>
+        <v>3.3898305084745763E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>44766</v>
       </c>
@@ -1068,16 +1124,16 @@
         <v>12.53</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
@@ -1095,8 +1151,12 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Z7" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>44766</v>
       </c>
@@ -1146,16 +1206,16 @@
         <v>16.3</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
@@ -1173,8 +1233,12 @@
         <f t="shared" si="3"/>
         <v>3.2500000000000013</v>
       </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>44766</v>
       </c>
@@ -1224,16 +1288,16 @@
         <v>18.899999999999999</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
@@ -1251,8 +1315,12 @@
         <f t="shared" si="3"/>
         <v>3.8805970149253701</v>
       </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>44767</v>
       </c>
@@ -1299,16 +1367,16 @@
         <v>14.73</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="S10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
@@ -1326,40 +1394,129 @@
         <f t="shared" si="3"/>
         <v>1.4290357529794151</v>
       </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="4"/>
+        <v>3.2502708559046588E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
+      <c r="B11">
+        <v>1280</v>
+      </c>
       <c r="D11">
         <v>13</v>
       </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
       <c r="F11">
         <v>24</v>
       </c>
+      <c r="G11">
+        <v>934</v>
+      </c>
       <c r="H11">
         <v>16</v>
       </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
       <c r="J11">
         <v>30</v>
       </c>
+      <c r="K11">
+        <v>952</v>
+      </c>
       <c r="L11">
         <v>29</v>
       </c>
+      <c r="M11">
+        <v>562</v>
+      </c>
       <c r="N11">
         <v>2</v>
       </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>1.24</v>
+      </c>
       <c r="Q11">
-        <v>1.24</v>
+        <v>17.12</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="S11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>15.88</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9793621013133209</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="4"/>
+        <v>7.5046904315196998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1">
+        <v>44769</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>2.37</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" t="s">
         <v>14</v>
       </c>
-      <c r="T11" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" t="s">
-        <v>21</v>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
